--- a/spliced/walkingToRunning/2023-04-03_17-00-11/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-00-11/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.820753812789917</v>
+        <v>2.395846366882324</v>
       </c>
       <c r="B2" t="n">
-        <v>1.492368936538696</v>
+        <v>5.165933609008789</v>
       </c>
       <c r="C2" t="n">
-        <v>1.348425030708313</v>
+        <v>-3.433014392852783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4990098178386688</v>
+        <v>-4.131561756134033</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1838247030973434</v>
+        <v>1.293697118759155</v>
       </c>
       <c r="C3" t="n">
-        <v>2.626742362976074</v>
+        <v>3.305315971374512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.682767927646637</v>
+        <v>-11.94900512695312</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9831725358963012</v>
+        <v>-0.5390903949737549</v>
       </c>
       <c r="C4" t="n">
-        <v>2.719953060150146</v>
+        <v>0.9473530054092408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2338921278715133</v>
+        <v>6.543986320495605</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.52872109413147</v>
+        <v>-9.976800918579102</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.387706637382507</v>
+        <v>-2.196774959564209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9066066145896912</v>
+        <v>2.871486902236938</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.112236738204956</v>
+        <v>-5.876065254211426</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.98673677444458</v>
+        <v>-3.124087810516357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.141814708709717</v>
+        <v>7.37382698059082</v>
       </c>
       <c r="B7" t="n">
-        <v>1.03110945224762</v>
+        <v>11.17136192321777</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.055378198623657</v>
+        <v>-1.706753373146057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.395846366882324</v>
+        <v>-4.830907821655273</v>
       </c>
       <c r="B8" t="n">
-        <v>5.165933609008789</v>
+        <v>0.3003380000591278</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.433014392852783</v>
+        <v>1.922602653503418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.131561756134033</v>
+        <v>-6.295113563537598</v>
       </c>
       <c r="B9" t="n">
-        <v>1.293697118759155</v>
+        <v>2.037784337997437</v>
       </c>
       <c r="C9" t="n">
-        <v>3.305315971374512</v>
+        <v>3.717573165893554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-11.94900512695312</v>
+        <v>-1.753358721733093</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5390903949737549</v>
+        <v>12.93171119689941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9473530054092408</v>
+        <v>2.580935955047607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.543986320495605</v>
+        <v>-3.18294358253479</v>
       </c>
       <c r="B11" t="n">
-        <v>-9.976800918579102</v>
+        <v>-2.735665798187256</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.196774959564209</v>
+        <v>0.6512094736099243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.871486902236938</v>
+        <v>7.503256797790527</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.876065254211426</v>
+        <v>0.8255133628845215</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.124087810516357</v>
+        <v>-1.698231339454651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.37382698059082</v>
+        <v>-1.000749349594116</v>
       </c>
       <c r="B13" t="n">
-        <v>11.17136192321777</v>
+        <v>-2.794787883758545</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.706753373146057</v>
+        <v>-1.550159573554993</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.830907821655273</v>
+        <v>-2.628473520278931</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3003380000591278</v>
+        <v>-2.876280546188354</v>
       </c>
       <c r="C14" t="n">
-        <v>1.922602653503418</v>
+        <v>-0.96160089969635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.295113563537598</v>
+        <v>-5.674064636230469</v>
       </c>
       <c r="B15" t="n">
-        <v>2.037784337997437</v>
+        <v>-1.664009690284729</v>
       </c>
       <c r="C15" t="n">
-        <v>3.717573165893554</v>
+        <v>-3.089466571807861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.753358721733093</v>
+        <v>0.2152500003576278</v>
       </c>
       <c r="B16" t="n">
-        <v>12.93171119689941</v>
+        <v>15.8856897354126</v>
       </c>
       <c r="C16" t="n">
-        <v>2.580935955047607</v>
+        <v>-3.721701145172119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.18294358253479</v>
+        <v>1.613942265510559</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.735665798187256</v>
+        <v>-4.874184131622314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6512094736099243</v>
+        <v>-0.0044607948511838</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7.503256797790527</v>
+        <v>4.66752290725708</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8255133628845215</v>
+        <v>-2.795853137969971</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.698231339454651</v>
+        <v>-8.249074935913086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.000749349594116</v>
+        <v>1.00194776058197</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.794787883758545</v>
+        <v>-2.820886850357056</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.550159573554993</v>
+        <v>4.437692165374756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.628473520278931</v>
+        <v>-8.889565467834473</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.876280546188354</v>
+        <v>1.164800047874451</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.96160089969635</v>
+        <v>11.45938301086426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.674064636230469</v>
+        <v>2.723947763442993</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.664009690284729</v>
+        <v>6.857040882110596</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.089466571807861</v>
+        <v>-5.117730140686035</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.208609104156494</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-8.24947452545166</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5370930433273315</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.961604118347168</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.756906032562256</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.651110410690308</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.561361789703369</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.376787781715393</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.834718346595764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.701976776123047</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.867341995239258</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.237104892730713</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-5.291634559631348</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.584681510925293</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.499310255050659</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.4974119365215301</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.873122215271</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.119993686676025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0159123875200748</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.14615797996521</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.750063896179199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8.204200744628906</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.466621398925781</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.093693733215332</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.878527283668518</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.402770519256592</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.963331937789917</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-2.405300617218018</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.181844353675843</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.602807998657227</v>
       </c>
     </row>
   </sheetData>
